--- a/document/股票/stock.xlsx
+++ b/document/股票/stock.xlsx
@@ -487,7 +487,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="K13" sqref="A13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -957,6 +957,12 @@
       <c r="C12">
         <v>400</v>
       </c>
+      <c r="D12">
+        <v>20171009</v>
+      </c>
+      <c r="E12">
+        <v>13.97</v>
+      </c>
       <c r="F12">
         <f t="shared" si="5"/>
         <v>13.92975</v>
@@ -967,55 +973,54 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>-13.59</v>
+        <v>0.38000000000000078</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>-100</v>
+        <v>2.7961736571008151</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>-5436</v>
-      </c>
-      <c r="K12" s="3">
+        <v>152.00000000000031</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="3"/>
         <v>13.725899999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>20160104</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>13.37</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>200</v>
       </c>
-      <c r="F13">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
         <f t="shared" si="5"/>
         <v>13.70425</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <f t="shared" si="6"/>
         <v>13.771099999999999</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>-13.37</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <f t="shared" si="2"/>
         <v>-2674</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
-        <v>13.503699999999998</v>
-      </c>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F14">
@@ -1574,7 +1579,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/document/股票/stock.xlsx
+++ b/document/股票/stock.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t xml:space="preserve">           </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 截至到2017-10-18,两年了还赔264</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +491,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="A13:K13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -578,41 +582,44 @@
         <v>14.746</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>20151101</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>16.510000000000002</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="E3" s="3">
-        <v>17.2</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="D3">
+        <v>20171018</v>
+      </c>
+      <c r="E3">
+        <v>14.34</v>
+      </c>
+      <c r="F3">
         <f>(B3*0.025)+B3</f>
         <v>16.922750000000001</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <f>(B3*0.03)+B3</f>
         <v>17.005300000000002</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
         <f t="shared" ref="H3:H38" si="0">E3-B3</f>
-        <v>0.68999999999999773</v>
+        <v>-2.1700000000000017</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I4" si="1">(H3/B3)*100</f>
-        <v>4.1792852816474717</v>
+        <v>-13.143549364021814</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J38" si="2">H3*C3</f>
-        <v>68.999999999999773</v>
+        <v>-217.00000000000017</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K14" si="3">B3+B3*0.01</f>
+        <f t="shared" ref="K3:K15" si="3">B3+B3*0.01</f>
         <v>16.6751</v>
       </c>
     </row>
@@ -698,38 +705,41 @@
         <v>16.170100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>20151106</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>17.25</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>100</v>
       </c>
-      <c r="E6" s="3">
-        <v>17.760000000000002</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="D6">
+        <v>20171018</v>
+      </c>
+      <c r="E6">
+        <v>14.34</v>
+      </c>
+      <c r="F6">
         <f>(B6*0.025)+B6</f>
         <v>17.681249999999999</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <f>(B6*0.03)+B6</f>
         <v>17.767499999999998</v>
       </c>
-      <c r="H6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.51000000000000156</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="4"/>
-        <v>2.9565217391304439</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="2"/>
-        <v>51.000000000000156</v>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-2.91</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>-16.869565217391305</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>-291</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
@@ -989,85 +999,113 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>20160104</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>13.37</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>200</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
+      <c r="D13">
+        <v>20171018</v>
+      </c>
+      <c r="E13">
+        <v>14.34</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="5"/>
         <v>13.70425</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <f t="shared" si="6"/>
         <v>13.771099999999999</v>
       </c>
-      <c r="H13" s="3">
-        <f t="shared" si="0"/>
-        <v>-13.37</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.97000000000000064</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>7.2550486163051664</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>194.00000000000011</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>20171018</v>
+      </c>
+      <c r="B14" s="3">
+        <v>14.11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>400</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="5"/>
+        <v>14.46275</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="6"/>
+        <v>14.533299999999999</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>-14.11</v>
+      </c>
+      <c r="I14" s="3">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
-      <c r="J13" s="3">
-        <f t="shared" si="2"/>
-        <v>-2674</v>
-      </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="J14" s="3">
+        <f t="shared" si="2"/>
+        <v>-5644</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="3"/>
+        <v>14.251099999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>20171019</v>
+      </c>
+      <c r="B15" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="C15" s="3">
+        <v>300</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="5"/>
+        <v>14.145000000000001</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14.214</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>-13.8</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="2"/>
+        <v>-4140</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="3"/>
+        <v>13.938000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">

--- a/document/股票/stock.xlsx
+++ b/document/股票/stock.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 截至到2017-10-18,两年了还赔264</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利(元)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +495,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -529,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -1073,37 +1077,43 @@
         <v>14.251099999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>20171019</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>13.8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="D15">
+        <v>20171023</v>
+      </c>
+      <c r="E15">
+        <v>14.05</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="5"/>
         <v>14.145000000000001</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <f t="shared" si="6"/>
         <v>14.214</v>
       </c>
-      <c r="H15" s="3">
-        <f t="shared" si="0"/>
-        <v>-13.8</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="2"/>
-        <v>-4140</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>1.8115942028985508</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>13.938000000000001</v>
       </c>
